--- a/output/Solution Sienna 1.xlsx
+++ b/output/Solution Sienna 1.xlsx
@@ -24,18 +24,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>name</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>benefit</t>
-  </si>
-  <si>
-    <t>profit</t>
   </si>
   <si>
     <t>Share-GRUT</t>
@@ -44,7 +35,7 @@
     <t>total cost</t>
   </si>
   <si>
-    <t>total profit</t>
+    <t>total return</t>
   </si>
 </sst>
 </file>
@@ -366,7 +357,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F8" activeCellId="1" sqref="A2 F8"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -375,47 +366,30 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1">
-        <v>498.76</v>
-      </c>
-      <c r="C2">
-        <v>39.42</v>
-      </c>
-      <c r="D2">
-        <f>(B2*C2)/100</f>
-        <v>196.61119200000002</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="B2" s="1"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
-        <f>B2</f>
         <v>498.76</v>
       </c>
       <c r="C5" s="1">
-        <f>D2</f>
-        <v>196.61119200000002</v>
+        <v>196.61</v>
       </c>
     </row>
   </sheetData>
